--- a/data/M1-IEAP-ICDSP.xlsx
+++ b/data/M1-IEAP-ICDSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3194A-CE99-7141-B37D-7742FCEEF1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7ECE78-87E1-E14C-B02A-85C8C2ACBF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19720" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="8560" yWindow="1760" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-IEAP-ICDSP" sheetId="1" r:id="rId1"/>
@@ -204,12 +204,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,8 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -981,7 +988,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15">
@@ -1010,7 +1017,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16">
@@ -1039,7 +1046,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B17">

--- a/data/M1-IEAP-ICDSP.xlsx
+++ b/data/M1-IEAP-ICDSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7ECE78-87E1-E14C-B02A-85C8C2ACBF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF7E3F5-A7CB-514F-9B90-5A9EEE6AC29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1760" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-IEAP-ICDSP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>AMS2251</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -204,18 +207,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,7 +229,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +578,7 @@
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,19 +595,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -627,19 +627,22 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -656,19 +659,22 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>16</v>
       </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -685,19 +691,22 @@
         <v>10</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -714,19 +723,22 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>14</v>
       </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -743,19 +755,22 @@
         <v>4</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -772,19 +787,22 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -801,19 +819,22 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -830,19 +851,22 @@
         <v>8</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -859,19 +883,22 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -888,19 +915,22 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -917,19 +947,22 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -946,20 +979,23 @@
         <v>4</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14">
@@ -975,19 +1011,22 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <v>6</v>
       </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1004,19 +1043,22 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1033,19 +1075,22 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>8</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1062,20 +1107,23 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>12</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18">
@@ -1091,19 +1139,22 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>6</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1120,19 +1171,22 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1149,19 +1203,22 @@
         <v>6</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>10</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>14</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1178,22 +1235,24 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
-    <sortCondition ref="B2:B46"/>
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
+    <sortCondition ref="B2:B22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
